--- a/pred_ohlcv/54/2019-10-21 OMG ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-21 OMG ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H188"/>
+  <dimension ref="A1:I168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,25 +413,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="C2" t="n">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="D2" t="n">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="E2" t="n">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="F2" t="n">
-        <v>46.3999</v>
+        <v>32.3571</v>
       </c>
       <c r="G2" t="n">
-        <v>970.15</v>
+        <v>969.5833333333334</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -446,12 +454,15 @@
         <v>970</v>
       </c>
       <c r="F3" t="n">
-        <v>166.4948</v>
+        <v>46.3999</v>
       </c>
       <c r="G3" t="n">
-        <v>970.55</v>
+        <v>970.15</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -460,24 +471,27 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="C4" t="n">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="D4" t="n">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="E4" t="n">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="F4" t="n">
-        <v>5.4968</v>
+        <v>166.4948</v>
       </c>
       <c r="G4" t="n">
-        <v>970.8333333333334</v>
+        <v>970.55</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -486,24 +500,27 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C5" t="n">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="D5" t="n">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E5" t="n">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="F5" t="n">
-        <v>3.2252</v>
+        <v>5.4968</v>
       </c>
       <c r="G5" t="n">
-        <v>970.95</v>
+        <v>970.8333333333334</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,24 +529,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="C6" t="n">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="D6" t="n">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="E6" t="n">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="F6" t="n">
-        <v>2.0513</v>
+        <v>3.2252</v>
       </c>
       <c r="G6" t="n">
-        <v>971.1333333333333</v>
+        <v>970.95</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -538,24 +558,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="C7" t="n">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="D7" t="n">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="E7" t="n">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="F7" t="n">
-        <v>66.04049999999999</v>
+        <v>2.0513</v>
       </c>
       <c r="G7" t="n">
-        <v>971.3</v>
+        <v>971.1333333333333</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -576,12 +599,15 @@
         <v>972</v>
       </c>
       <c r="F8" t="n">
-        <v>1.1796</v>
+        <v>66.04049999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>971.1333333333333</v>
+        <v>971.3</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,7 +616,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C9" t="n">
         <v>972</v>
@@ -599,15 +625,18 @@
         <v>972</v>
       </c>
       <c r="E9" t="n">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="F9" t="n">
-        <v>171.6203</v>
+        <v>1.1796</v>
       </c>
       <c r="G9" t="n">
-        <v>971.2666666666667</v>
+        <v>971.1333333333333</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -619,21 +648,24 @@
         <v>971</v>
       </c>
       <c r="C10" t="n">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="D10" t="n">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="E10" t="n">
         <v>971</v>
       </c>
       <c r="F10" t="n">
-        <v>48.1576</v>
+        <v>171.6203</v>
       </c>
       <c r="G10" t="n">
-        <v>971.35</v>
+        <v>971.2666666666667</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="C11" t="n">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="D11" t="n">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="E11" t="n">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="F11" t="n">
-        <v>62.6</v>
+        <v>48.1576</v>
       </c>
       <c r="G11" t="n">
-        <v>971.3666666666667</v>
+        <v>971.35</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="C12" t="n">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="D12" t="n">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="E12" t="n">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="F12" t="n">
-        <v>4.452</v>
+        <v>62.6</v>
       </c>
       <c r="G12" t="n">
         <v>971.3666666666667</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -706,12 +744,15 @@
         <v>967</v>
       </c>
       <c r="F13" t="n">
-        <v>248.9999</v>
+        <v>4.452</v>
       </c>
       <c r="G13" t="n">
         <v>971.3666666666667</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -723,21 +764,24 @@
         <v>967</v>
       </c>
       <c r="C14" t="n">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="D14" t="n">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="E14" t="n">
         <v>967</v>
       </c>
       <c r="F14" t="n">
-        <v>46.0319</v>
+        <v>248.9999</v>
       </c>
       <c r="G14" t="n">
-        <v>971.4166666666666</v>
+        <v>971.3666666666667</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,7 +790,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="C15" t="n">
         <v>970</v>
@@ -755,15 +799,18 @@
         <v>970</v>
       </c>
       <c r="E15" t="n">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="F15" t="n">
-        <v>75.3878</v>
+        <v>46.0319</v>
       </c>
       <c r="G15" t="n">
-        <v>971.5166666666667</v>
+        <v>971.4166666666666</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,24 +819,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="C16" t="n">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="D16" t="n">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="E16" t="n">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="F16" t="n">
-        <v>331.9151</v>
+        <v>75.3878</v>
       </c>
       <c r="G16" t="n">
-        <v>971.5333333333333</v>
+        <v>971.5166666666667</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -801,21 +851,24 @@
         <v>969</v>
       </c>
       <c r="C17" t="n">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D17" t="n">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E17" t="n">
         <v>969</v>
       </c>
       <c r="F17" t="n">
-        <v>182.5151</v>
+        <v>331.9151</v>
       </c>
       <c r="G17" t="n">
-        <v>971.5833333333334</v>
+        <v>971.5333333333333</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,24 +877,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
+        <v>969</v>
+      </c>
+      <c r="C18" t="n">
         <v>970</v>
       </c>
-      <c r="C18" t="n">
-        <v>972</v>
-      </c>
       <c r="D18" t="n">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="E18" t="n">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F18" t="n">
-        <v>2283.3138</v>
+        <v>182.5151</v>
       </c>
       <c r="G18" t="n">
-        <v>971.65</v>
+        <v>971.5833333333334</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,24 +906,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="C19" t="n">
-        <v>968</v>
+        <v>972</v>
       </c>
       <c r="D19" t="n">
-        <v>968</v>
+        <v>973</v>
       </c>
       <c r="E19" t="n">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="F19" t="n">
-        <v>42.8</v>
+        <v>2283.3138</v>
       </c>
       <c r="G19" t="n">
-        <v>971.5666666666667</v>
+        <v>971.65</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,24 +935,27 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="C20" t="n">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="D20" t="n">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="E20" t="n">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="F20" t="n">
-        <v>272.0388</v>
+        <v>42.8</v>
       </c>
       <c r="G20" t="n">
-        <v>971.4166666666666</v>
+        <v>971.5666666666667</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,24 +964,27 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="C21" t="n">
         <v>965</v>
       </c>
       <c r="D21" t="n">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="E21" t="n">
         <v>965</v>
       </c>
       <c r="F21" t="n">
-        <v>113.44</v>
+        <v>272.0388</v>
       </c>
       <c r="G21" t="n">
-        <v>971.2666666666667</v>
+        <v>971.4166666666666</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -940,12 +1005,15 @@
         <v>965</v>
       </c>
       <c r="F22" t="n">
-        <v>5124.6505</v>
+        <v>113.44</v>
       </c>
       <c r="G22" t="n">
-        <v>971.1166666666667</v>
+        <v>971.2666666666667</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,24 +1022,27 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>960</v>
+        <v>965</v>
       </c>
       <c r="C23" t="n">
-        <v>960</v>
+        <v>965</v>
       </c>
       <c r="D23" t="n">
-        <v>960</v>
+        <v>965</v>
       </c>
       <c r="E23" t="n">
-        <v>960</v>
+        <v>965</v>
       </c>
       <c r="F23" t="n">
-        <v>2.06</v>
+        <v>5124.6505</v>
       </c>
       <c r="G23" t="n">
-        <v>970.8833333333333</v>
+        <v>971.1166666666667</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,24 +1051,27 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="C24" t="n">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="D24" t="n">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="E24" t="n">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="F24" t="n">
-        <v>102.8414</v>
+        <v>2.06</v>
       </c>
       <c r="G24" t="n">
-        <v>970.7333333333333</v>
+        <v>970.8833333333333</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,7 +1080,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C25" t="n">
         <v>965</v>
@@ -1015,15 +1089,18 @@
         <v>965</v>
       </c>
       <c r="E25" t="n">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F25" t="n">
-        <v>142.5</v>
+        <v>102.8414</v>
       </c>
       <c r="G25" t="n">
-        <v>970.5833333333334</v>
+        <v>970.7333333333333</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,24 +1109,27 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="C26" t="n">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="D26" t="n">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="E26" t="n">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="F26" t="n">
-        <v>119.5177</v>
+        <v>142.5</v>
       </c>
       <c r="G26" t="n">
-        <v>970.35</v>
+        <v>970.5833333333334</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1070,12 +1150,15 @@
         <v>961</v>
       </c>
       <c r="F27" t="n">
-        <v>360.2758</v>
+        <v>119.5177</v>
       </c>
       <c r="G27" t="n">
-        <v>970.1333333333333</v>
+        <v>970.35</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1087,21 +1170,24 @@
         <v>961</v>
       </c>
       <c r="C28" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D28" t="n">
         <v>961</v>
       </c>
       <c r="E28" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="F28" t="n">
-        <v>1635.6548</v>
+        <v>360.2758</v>
       </c>
       <c r="G28" t="n">
-        <v>969.8666666666667</v>
+        <v>970.1333333333333</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C29" t="n">
         <v>960</v>
       </c>
       <c r="D29" t="n">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E29" t="n">
         <v>960</v>
       </c>
       <c r="F29" t="n">
-        <v>385.8622</v>
+        <v>1635.6548</v>
       </c>
       <c r="G29" t="n">
-        <v>969.6166666666667</v>
+        <v>969.8666666666667</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1139,21 +1228,24 @@
         <v>963</v>
       </c>
       <c r="C30" t="n">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="D30" t="n">
         <v>963</v>
       </c>
       <c r="E30" t="n">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="F30" t="n">
-        <v>16.2678</v>
+        <v>385.8622</v>
       </c>
       <c r="G30" t="n">
-        <v>969.4166666666666</v>
+        <v>969.6166666666667</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1174,12 +1266,15 @@
         <v>963</v>
       </c>
       <c r="F31" t="n">
-        <v>38.15</v>
+        <v>16.2678</v>
       </c>
       <c r="G31" t="n">
-        <v>969.2833333333333</v>
+        <v>969.4166666666666</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1200,12 +1295,15 @@
         <v>963</v>
       </c>
       <c r="F32" t="n">
-        <v>1.3032</v>
+        <v>38.15</v>
       </c>
       <c r="G32" t="n">
-        <v>969.2666666666667</v>
+        <v>969.2833333333333</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1226,12 +1324,15 @@
         <v>963</v>
       </c>
       <c r="F33" t="n">
-        <v>28.9496</v>
+        <v>1.3032</v>
       </c>
       <c r="G33" t="n">
-        <v>969.25</v>
+        <v>969.2666666666667</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1243,21 +1344,24 @@
         <v>963</v>
       </c>
       <c r="C34" t="n">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D34" t="n">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E34" t="n">
         <v>963</v>
       </c>
       <c r="F34" t="n">
-        <v>139.5</v>
+        <v>28.9496</v>
       </c>
       <c r="G34" t="n">
-        <v>969.2666666666667</v>
+        <v>969.25</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,24 +1370,27 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="C35" t="n">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="D35" t="n">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="E35" t="n">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="F35" t="n">
-        <v>26.5249</v>
+        <v>139.5</v>
       </c>
       <c r="G35" t="n">
-        <v>969.2166666666667</v>
+        <v>969.2666666666667</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1295,21 +1402,24 @@
         <v>961</v>
       </c>
       <c r="C36" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D36" t="n">
         <v>961</v>
       </c>
       <c r="E36" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="F36" t="n">
-        <v>11.3402</v>
+        <v>26.5249</v>
       </c>
       <c r="G36" t="n">
-        <v>969.15</v>
+        <v>969.2166666666667</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="C37" t="n">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="D37" t="n">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="E37" t="n">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="F37" t="n">
-        <v>1528.2473</v>
+        <v>11.3402</v>
       </c>
       <c r="G37" t="n">
-        <v>969.0333333333333</v>
+        <v>969.15</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1347,21 +1460,24 @@
         <v>959</v>
       </c>
       <c r="C38" t="n">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="D38" t="n">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="E38" t="n">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F38" t="n">
-        <v>384.9122</v>
+        <v>1528.2473</v>
       </c>
       <c r="G38" t="n">
-        <v>969.0166666666667</v>
+        <v>969.0333333333333</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,7 +1486,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="C39" t="n">
         <v>964</v>
@@ -1379,15 +1495,18 @@
         <v>964</v>
       </c>
       <c r="E39" t="n">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="F39" t="n">
-        <v>76.2025</v>
+        <v>384.9122</v>
       </c>
       <c r="G39" t="n">
-        <v>969</v>
+        <v>969.0166666666667</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,24 +1515,27 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="C40" t="n">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="D40" t="n">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="E40" t="n">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="F40" t="n">
-        <v>1.2999</v>
+        <v>76.2025</v>
       </c>
       <c r="G40" t="n">
-        <v>968.8333333333334</v>
+        <v>969</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1425,21 +1547,24 @@
         <v>960</v>
       </c>
       <c r="C41" t="n">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="D41" t="n">
         <v>960</v>
       </c>
       <c r="E41" t="n">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="F41" t="n">
-        <v>420.9377</v>
+        <v>1.2999</v>
       </c>
       <c r="G41" t="n">
-        <v>968.5833333333334</v>
+        <v>968.8333333333334</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="C42" t="n">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D42" t="n">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E42" t="n">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F42" t="n">
-        <v>1.0772</v>
+        <v>420.9377</v>
       </c>
       <c r="G42" t="n">
-        <v>968.3333333333334</v>
+        <v>968.5833333333334</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1477,21 +1605,24 @@
         <v>959</v>
       </c>
       <c r="C43" t="n">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="D43" t="n">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="E43" t="n">
         <v>959</v>
       </c>
       <c r="F43" t="n">
-        <v>2733.3036</v>
+        <v>1.0772</v>
       </c>
       <c r="G43" t="n">
-        <v>968.0833333333334</v>
+        <v>968.3333333333334</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,24 +1631,27 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C44" t="n">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D44" t="n">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E44" t="n">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="F44" t="n">
-        <v>1949.6668</v>
+        <v>2733.3036</v>
       </c>
       <c r="G44" t="n">
-        <v>967.9</v>
+        <v>968.0833333333334</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,24 +1660,27 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C45" t="n">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="D45" t="n">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E45" t="n">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="F45" t="n">
-        <v>5.6765</v>
+        <v>1949.6668</v>
       </c>
       <c r="G45" t="n">
-        <v>967.7333333333333</v>
+        <v>967.9</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,24 +1689,27 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="C46" t="n">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="D46" t="n">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E46" t="n">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="F46" t="n">
-        <v>2751.129</v>
+        <v>5.6765</v>
       </c>
       <c r="G46" t="n">
-        <v>967.45</v>
+        <v>967.7333333333333</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1581,21 +1721,24 @@
         <v>961</v>
       </c>
       <c r="C47" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D47" t="n">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="E47" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F47" t="n">
-        <v>39.7808</v>
+        <v>2751.129</v>
       </c>
       <c r="G47" t="n">
-        <v>967.15</v>
+        <v>967.45</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C48" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D48" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E48" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="F48" t="n">
-        <v>1110</v>
+        <v>39.7808</v>
       </c>
       <c r="G48" t="n">
-        <v>966.85</v>
+        <v>967.15</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,24 +1776,27 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="C49" t="n">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D49" t="n">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E49" t="n">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="F49" t="n">
-        <v>5436.4826</v>
+        <v>1110</v>
       </c>
       <c r="G49" t="n">
-        <v>966.65</v>
+        <v>966.85</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,24 +1805,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C50" t="n">
         <v>959</v>
       </c>
       <c r="D50" t="n">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E50" t="n">
         <v>959</v>
       </c>
       <c r="F50" t="n">
-        <v>1975.2209</v>
+        <v>5436.4826</v>
       </c>
       <c r="G50" t="n">
-        <v>966.4</v>
+        <v>966.65</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,24 +1834,27 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="C51" t="n">
         <v>959</v>
       </c>
       <c r="D51" t="n">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E51" t="n">
         <v>959</v>
       </c>
       <c r="F51" t="n">
-        <v>1.7847</v>
+        <v>1975.2209</v>
       </c>
       <c r="G51" t="n">
-        <v>966.2</v>
+        <v>966.4</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1720,12 +1875,15 @@
         <v>959</v>
       </c>
       <c r="F52" t="n">
-        <v>476.4497</v>
+        <v>1.7847</v>
       </c>
       <c r="G52" t="n">
-        <v>965.95</v>
+        <v>966.2</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,24 +1892,27 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C53" t="n">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D53" t="n">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E53" t="n">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="F53" t="n">
-        <v>49.1589</v>
+        <v>476.4497</v>
       </c>
       <c r="G53" t="n">
-        <v>965.8</v>
+        <v>965.95</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1772,12 +1933,15 @@
         <v>961</v>
       </c>
       <c r="F54" t="n">
-        <v>343.2705</v>
+        <v>49.1589</v>
       </c>
       <c r="G54" t="n">
-        <v>965.65</v>
+        <v>965.8</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1798,12 +1962,15 @@
         <v>961</v>
       </c>
       <c r="F55" t="n">
-        <v>827.2997</v>
+        <v>343.2705</v>
       </c>
       <c r="G55" t="n">
-        <v>965.5</v>
+        <v>965.65</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1824,12 +1991,15 @@
         <v>961</v>
       </c>
       <c r="F56" t="n">
-        <v>438.8095</v>
+        <v>827.2997</v>
       </c>
       <c r="G56" t="n">
-        <v>965.35</v>
+        <v>965.5</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,24 +2008,27 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="C57" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D57" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E57" t="n">
-        <v>955</v>
+        <v>961</v>
       </c>
       <c r="F57" t="n">
-        <v>6459.3</v>
+        <v>438.8095</v>
       </c>
       <c r="G57" t="n">
-        <v>965.15</v>
+        <v>965.35</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,24 +2037,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C58" t="n">
-        <v>954</v>
+        <v>960</v>
       </c>
       <c r="D58" t="n">
         <v>960</v>
       </c>
       <c r="E58" t="n">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="F58" t="n">
-        <v>10229.2744</v>
+        <v>6459.3</v>
       </c>
       <c r="G58" t="n">
-        <v>964.7166666666667</v>
+        <v>965.15</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,24 +2066,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
+        <v>959</v>
+      </c>
+      <c r="C59" t="n">
         <v>954</v>
       </c>
-      <c r="C59" t="n">
-        <v>960</v>
-      </c>
       <c r="D59" t="n">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="E59" t="n">
         <v>954</v>
       </c>
       <c r="F59" t="n">
-        <v>4602.8805</v>
+        <v>10229.2744</v>
       </c>
       <c r="G59" t="n">
-        <v>964.3833333333333</v>
+        <v>964.7166666666667</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,7 +2095,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="C60" t="n">
         <v>960</v>
@@ -1925,15 +2104,18 @@
         <v>962</v>
       </c>
       <c r="E60" t="n">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="F60" t="n">
-        <v>3401.8626</v>
+        <v>4602.8805</v>
       </c>
       <c r="G60" t="n">
-        <v>964.05</v>
+        <v>964.3833333333333</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,24 +2124,27 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C61" t="n">
         <v>960</v>
       </c>
       <c r="D61" t="n">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="E61" t="n">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F61" t="n">
-        <v>511.1814</v>
+        <v>3401.8626</v>
       </c>
       <c r="G61" t="n">
-        <v>963.8333333333334</v>
+        <v>964.05</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1980,12 +2165,15 @@
         <v>960</v>
       </c>
       <c r="F62" t="n">
-        <v>258.6871</v>
+        <v>511.1814</v>
       </c>
       <c r="G62" t="n">
-        <v>963.6666666666666</v>
+        <v>963.8333333333334</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="C63" t="n">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="D63" t="n">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="E63" t="n">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="F63" t="n">
-        <v>3.1832</v>
+        <v>258.6871</v>
       </c>
       <c r="G63" t="n">
-        <v>963.4666666666667</v>
+        <v>963.6666666666666</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C64" t="n">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D64" t="n">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E64" t="n">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F64" t="n">
-        <v>160.3678</v>
+        <v>3.1832</v>
       </c>
       <c r="G64" t="n">
-        <v>963.3333333333334</v>
+        <v>963.4666666666667</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C65" t="n">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D65" t="n">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E65" t="n">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F65" t="n">
-        <v>1050.7436</v>
+        <v>160.3678</v>
       </c>
       <c r="G65" t="n">
-        <v>963.1833333333333</v>
+        <v>963.3333333333334</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2075,21 +2272,24 @@
         <v>961</v>
       </c>
       <c r="C66" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D66" t="n">
         <v>961</v>
       </c>
       <c r="E66" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F66" t="n">
-        <v>342.6865</v>
+        <v>1050.7436</v>
       </c>
       <c r="G66" t="n">
-        <v>962.9833333333333</v>
+        <v>963.1833333333333</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2101,21 +2301,24 @@
         <v>961</v>
       </c>
       <c r="C67" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D67" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E67" t="n">
         <v>961</v>
       </c>
       <c r="F67" t="n">
-        <v>1691.9061</v>
+        <v>342.6865</v>
       </c>
       <c r="G67" t="n">
-        <v>962.8166666666667</v>
+        <v>962.9833333333333</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,7 +2327,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C68" t="n">
         <v>962</v>
@@ -2133,15 +2336,18 @@
         <v>962</v>
       </c>
       <c r="E68" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F68" t="n">
-        <v>2</v>
+        <v>1691.9061</v>
       </c>
       <c r="G68" t="n">
-        <v>962.65</v>
+        <v>962.8166666666667</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,24 +2356,27 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="C69" t="n">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="D69" t="n">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="E69" t="n">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="F69" t="n">
-        <v>910.4103</v>
+        <v>2</v>
       </c>
       <c r="G69" t="n">
-        <v>962.4666666666667</v>
+        <v>962.65</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2188,12 +2397,15 @@
         <v>961</v>
       </c>
       <c r="F70" t="n">
-        <v>171.806</v>
+        <v>910.4103</v>
       </c>
       <c r="G70" t="n">
-        <v>962.3</v>
+        <v>962.4666666666667</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2214,12 +2426,15 @@
         <v>961</v>
       </c>
       <c r="F71" t="n">
-        <v>12.6413</v>
+        <v>171.806</v>
       </c>
       <c r="G71" t="n">
-        <v>962.1833333333333</v>
+        <v>962.3</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2240,12 +2455,15 @@
         <v>961</v>
       </c>
       <c r="F72" t="n">
-        <v>46.7896</v>
+        <v>12.6413</v>
       </c>
       <c r="G72" t="n">
-        <v>962.0833333333334</v>
+        <v>962.1833333333333</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2266,12 +2484,15 @@
         <v>961</v>
       </c>
       <c r="F73" t="n">
-        <v>174.9233</v>
+        <v>46.7896</v>
       </c>
       <c r="G73" t="n">
-        <v>961.9833333333333</v>
+        <v>962.0833333333334</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,24 +2501,27 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C74" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D74" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E74" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F74" t="n">
-        <v>3</v>
+        <v>174.9233</v>
       </c>
       <c r="G74" t="n">
-        <v>961.85</v>
+        <v>961.9833333333333</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2318,12 +2542,15 @@
         <v>962</v>
       </c>
       <c r="F75" t="n">
-        <v>181.0859</v>
+        <v>3</v>
       </c>
       <c r="G75" t="n">
-        <v>961.7166666666667</v>
+        <v>961.85</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2332,24 +2559,27 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="C76" t="n">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="D76" t="n">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="E76" t="n">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="F76" t="n">
-        <v>450</v>
+        <v>181.0859</v>
       </c>
       <c r="G76" t="n">
-        <v>961.5833333333334</v>
+        <v>961.7166666666667</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2370,12 +2600,15 @@
         <v>961</v>
       </c>
       <c r="F77" t="n">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="G77" t="n">
-        <v>961.4333333333333</v>
+        <v>961.5833333333334</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2396,12 +2629,15 @@
         <v>961</v>
       </c>
       <c r="F78" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="G78" t="n">
-        <v>961.25</v>
+        <v>961.4333333333333</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,24 +2646,27 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C79" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D79" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E79" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="F79" t="n">
         <v>500</v>
       </c>
       <c r="G79" t="n">
-        <v>961.1166666666667</v>
+        <v>961.25</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2448,12 +2687,15 @@
         <v>960</v>
       </c>
       <c r="F80" t="n">
-        <v>8.305400000000001</v>
+        <v>500</v>
       </c>
       <c r="G80" t="n">
-        <v>961.0333333333333</v>
+        <v>961.1166666666667</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2474,12 +2716,15 @@
         <v>960</v>
       </c>
       <c r="F81" t="n">
-        <v>64.9418</v>
+        <v>8.305400000000001</v>
       </c>
       <c r="G81" t="n">
-        <v>960.95</v>
+        <v>961.0333333333333</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2500,12 +2745,15 @@
         <v>960</v>
       </c>
       <c r="F82" t="n">
-        <v>288.9365</v>
+        <v>64.9418</v>
       </c>
       <c r="G82" t="n">
-        <v>960.8666666666667</v>
+        <v>960.95</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2517,21 +2765,24 @@
         <v>960</v>
       </c>
       <c r="C83" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D83" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E83" t="n">
         <v>960</v>
       </c>
       <c r="F83" t="n">
-        <v>224.6161</v>
+        <v>288.9365</v>
       </c>
       <c r="G83" t="n">
-        <v>960.8833333333333</v>
+        <v>960.8666666666667</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,24 +2791,27 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C84" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D84" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E84" t="n">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="F84" t="n">
-        <v>195.9564</v>
+        <v>224.6161</v>
       </c>
       <c r="G84" t="n">
-        <v>960.8333333333334</v>
+        <v>960.8833333333333</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2578,12 +2832,15 @@
         <v>962</v>
       </c>
       <c r="F85" t="n">
-        <v>1089.6797</v>
+        <v>195.9564</v>
       </c>
       <c r="G85" t="n">
-        <v>960.7833333333333</v>
+        <v>960.8333333333334</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2604,12 +2861,15 @@
         <v>962</v>
       </c>
       <c r="F86" t="n">
-        <v>2.3</v>
+        <v>1089.6797</v>
       </c>
       <c r="G86" t="n">
-        <v>960.8</v>
+        <v>960.7833333333333</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2630,12 +2890,15 @@
         <v>962</v>
       </c>
       <c r="F87" t="n">
-        <v>500</v>
+        <v>2.3</v>
       </c>
       <c r="G87" t="n">
-        <v>960.8166666666667</v>
+        <v>960.8</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C88" t="n">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D88" t="n">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E88" t="n">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F88" t="n">
-        <v>1.2</v>
+        <v>500</v>
       </c>
       <c r="G88" t="n">
-        <v>960.8666666666667</v>
+        <v>960.8166666666667</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,24 +2936,27 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="C89" t="n">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="D89" t="n">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="E89" t="n">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="F89" t="n">
-        <v>40.5749</v>
+        <v>1.2</v>
       </c>
       <c r="G89" t="n">
         <v>960.8666666666667</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2708,12 +2977,15 @@
         <v>960</v>
       </c>
       <c r="F90" t="n">
-        <v>1088.5737</v>
+        <v>40.5749</v>
       </c>
       <c r="G90" t="n">
-        <v>960.8166666666667</v>
+        <v>960.8666666666667</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2734,12 +3006,15 @@
         <v>960</v>
       </c>
       <c r="F91" t="n">
-        <v>569.2968</v>
+        <v>1088.5737</v>
       </c>
       <c r="G91" t="n">
-        <v>960.7666666666667</v>
+        <v>960.8166666666667</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2760,12 +3035,15 @@
         <v>960</v>
       </c>
       <c r="F92" t="n">
-        <v>33.5</v>
+        <v>569.2968</v>
       </c>
       <c r="G92" t="n">
-        <v>960.7166666666667</v>
+        <v>960.7666666666667</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2786,12 +3064,15 @@
         <v>960</v>
       </c>
       <c r="F93" t="n">
-        <v>23.8018</v>
+        <v>33.5</v>
       </c>
       <c r="G93" t="n">
-        <v>960.6666666666666</v>
+        <v>960.7166666666667</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2812,12 +3093,15 @@
         <v>960</v>
       </c>
       <c r="F94" t="n">
-        <v>136.8476</v>
+        <v>23.8018</v>
       </c>
       <c r="G94" t="n">
-        <v>960.5833333333334</v>
+        <v>960.6666666666666</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,24 +3110,27 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="C95" t="n">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D95" t="n">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="E95" t="n">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="F95" t="n">
-        <v>1817.246</v>
+        <v>136.8476</v>
       </c>
       <c r="G95" t="n">
-        <v>960.6</v>
+        <v>960.5833333333334</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,24 +3139,27 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C96" t="n">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="D96" t="n">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="E96" t="n">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F96" t="n">
-        <v>501.3056</v>
+        <v>1817.246</v>
       </c>
       <c r="G96" t="n">
         <v>960.6</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,24 +3168,27 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="C97" t="n">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="D97" t="n">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="E97" t="n">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="F97" t="n">
-        <v>99.75</v>
+        <v>501.3056</v>
       </c>
       <c r="G97" t="n">
         <v>960.6</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,24 +3197,27 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="C98" t="n">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="D98" t="n">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="E98" t="n">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="F98" t="n">
-        <v>35.8442</v>
+        <v>99.75</v>
       </c>
       <c r="G98" t="n">
-        <v>960.55</v>
+        <v>960.6</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2942,12 +3238,15 @@
         <v>961</v>
       </c>
       <c r="F99" t="n">
-        <v>5.965</v>
+        <v>35.8442</v>
       </c>
       <c r="G99" t="n">
-        <v>960.5</v>
+        <v>960.55</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2968,12 +3267,15 @@
         <v>961</v>
       </c>
       <c r="F100" t="n">
-        <v>44.3</v>
+        <v>5.965</v>
       </c>
       <c r="G100" t="n">
-        <v>960.5166666666667</v>
+        <v>960.5</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2982,24 +3284,27 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="C101" t="n">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="D101" t="n">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="E101" t="n">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="F101" t="n">
-        <v>20</v>
+        <v>44.3</v>
       </c>
       <c r="G101" t="n">
-        <v>960.5333333333333</v>
+        <v>960.5166666666667</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3011,21 +3316,24 @@
         <v>959</v>
       </c>
       <c r="C102" t="n">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D102" t="n">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="E102" t="n">
         <v>959</v>
       </c>
       <c r="F102" t="n">
-        <v>459.5688</v>
+        <v>20</v>
       </c>
       <c r="G102" t="n">
-        <v>960.5666666666667</v>
+        <v>960.5333333333333</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,24 +3342,27 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C103" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D103" t="n">
         <v>962</v>
       </c>
       <c r="E103" t="n">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="F103" t="n">
-        <v>710.4184</v>
+        <v>459.5688</v>
       </c>
       <c r="G103" t="n">
-        <v>960.55</v>
+        <v>960.5666666666667</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3060,7 +3371,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C104" t="n">
         <v>962</v>
@@ -3069,15 +3380,18 @@
         <v>962</v>
       </c>
       <c r="E104" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F104" t="n">
-        <v>916.3987</v>
+        <v>710.4184</v>
       </c>
       <c r="G104" t="n">
-        <v>960.5166666666667</v>
+        <v>960.55</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,24 +3400,27 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="C105" t="n">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="D105" t="n">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="E105" t="n">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="F105" t="n">
-        <v>30</v>
+        <v>916.3987</v>
       </c>
       <c r="G105" t="n">
-        <v>960.4666666666667</v>
+        <v>960.5166666666667</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3115,21 +3432,24 @@
         <v>960</v>
       </c>
       <c r="C106" t="n">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D106" t="n">
         <v>960</v>
       </c>
       <c r="E106" t="n">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="F106" t="n">
-        <v>573.5309</v>
+        <v>30</v>
       </c>
       <c r="G106" t="n">
-        <v>960.45</v>
+        <v>960.4666666666667</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,24 +3458,27 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="C107" t="n">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="D107" t="n">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="E107" t="n">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="F107" t="n">
-        <v>30</v>
+        <v>573.5309</v>
       </c>
       <c r="G107" t="n">
-        <v>960.4833333333333</v>
+        <v>960.45</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,24 +3487,27 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C108" t="n">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D108" t="n">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E108" t="n">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F108" t="n">
-        <v>817.1108</v>
+        <v>30</v>
       </c>
       <c r="G108" t="n">
-        <v>960.5666666666667</v>
+        <v>960.4833333333333</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3190,7 +3516,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C109" t="n">
         <v>965</v>
@@ -3199,15 +3525,18 @@
         <v>965</v>
       </c>
       <c r="E109" t="n">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F109" t="n">
-        <v>134.2638</v>
+        <v>817.1108</v>
       </c>
       <c r="G109" t="n">
-        <v>960.6666666666666</v>
+        <v>960.5666666666667</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3228,12 +3557,15 @@
         <v>965</v>
       </c>
       <c r="F110" t="n">
-        <v>114.743</v>
+        <v>134.2638</v>
       </c>
       <c r="G110" t="n">
-        <v>960.7666666666667</v>
+        <v>960.6666666666666</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,24 +3574,27 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="C111" t="n">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="D111" t="n">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="E111" t="n">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="F111" t="n">
-        <v>34.7394</v>
+        <v>114.743</v>
       </c>
       <c r="G111" t="n">
-        <v>960.8</v>
+        <v>960.7666666666667</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3268,24 +3603,27 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C112" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D112" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E112" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="F112" t="n">
-        <v>29.925</v>
+        <v>34.7394</v>
       </c>
       <c r="G112" t="n">
-        <v>960.8166666666667</v>
+        <v>960.8</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3306,12 +3644,15 @@
         <v>960</v>
       </c>
       <c r="F113" t="n">
-        <v>102.7337</v>
+        <v>29.925</v>
       </c>
       <c r="G113" t="n">
-        <v>960.8</v>
+        <v>960.8166666666667</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3320,24 +3661,27 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="C114" t="n">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="D114" t="n">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="E114" t="n">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="F114" t="n">
-        <v>50.2305</v>
+        <v>102.7337</v>
       </c>
       <c r="G114" t="n">
-        <v>960.8333333333334</v>
+        <v>960.8</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3346,24 +3690,27 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="C115" t="n">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="D115" t="n">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="E115" t="n">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="F115" t="n">
-        <v>20</v>
+        <v>50.2305</v>
       </c>
       <c r="G115" t="n">
-        <v>960.8166666666667</v>
+        <v>960.8333333333334</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3375,21 +3722,24 @@
         <v>960</v>
       </c>
       <c r="C116" t="n">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="D116" t="n">
         <v>960</v>
       </c>
       <c r="E116" t="n">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="F116" t="n">
-        <v>2257.4666</v>
+        <v>20</v>
       </c>
       <c r="G116" t="n">
-        <v>960.7666666666667</v>
+        <v>960.8166666666667</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3398,24 +3748,27 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="C117" t="n">
         <v>958</v>
       </c>
       <c r="D117" t="n">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="E117" t="n">
         <v>958</v>
       </c>
       <c r="F117" t="n">
-        <v>866</v>
+        <v>2257.4666</v>
       </c>
       <c r="G117" t="n">
-        <v>960.7333333333333</v>
+        <v>960.7666666666667</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3427,21 +3780,24 @@
         <v>958</v>
       </c>
       <c r="C118" t="n">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="D118" t="n">
         <v>958</v>
       </c>
       <c r="E118" t="n">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="F118" t="n">
-        <v>4415</v>
+        <v>866</v>
       </c>
       <c r="G118" t="n">
-        <v>960.7833333333333</v>
+        <v>960.7333333333333</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3450,24 +3806,27 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C119" t="n">
         <v>957</v>
       </c>
       <c r="D119" t="n">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="E119" t="n">
         <v>957</v>
       </c>
       <c r="F119" t="n">
-        <v>1910.5423</v>
+        <v>4415</v>
       </c>
       <c r="G119" t="n">
-        <v>960.7333333333333</v>
+        <v>960.7833333333333</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,24 +3835,27 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>956</v>
+        <v>960</v>
       </c>
       <c r="C120" t="n">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="D120" t="n">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E120" t="n">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="F120" t="n">
-        <v>2515.8369</v>
+        <v>1910.5423</v>
       </c>
       <c r="G120" t="n">
-        <v>960.7166666666667</v>
+        <v>960.7333333333333</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,24 +3864,27 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="C121" t="n">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="D121" t="n">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="E121" t="n">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="F121" t="n">
-        <v>4070.038</v>
+        <v>2515.8369</v>
       </c>
       <c r="G121" t="n">
-        <v>960.75</v>
+        <v>960.7166666666667</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,7 +3893,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C122" t="n">
         <v>962</v>
@@ -3537,15 +3902,18 @@
         <v>962</v>
       </c>
       <c r="E122" t="n">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="F122" t="n">
-        <v>9.5448</v>
+        <v>4070.038</v>
       </c>
       <c r="G122" t="n">
-        <v>960.7833333333333</v>
+        <v>960.75</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,24 +3922,27 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="C123" t="n">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="D123" t="n">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="E123" t="n">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="F123" t="n">
-        <v>74.3319</v>
+        <v>9.5448</v>
       </c>
       <c r="G123" t="n">
-        <v>960.8333333333334</v>
+        <v>960.7833333333333</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3580,24 +3951,27 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C124" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D124" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E124" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F124" t="n">
-        <v>366.7701</v>
+        <v>74.3319</v>
       </c>
       <c r="G124" t="n">
-        <v>960.8833333333333</v>
+        <v>960.8333333333334</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3606,24 +3980,27 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="C125" t="n">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="D125" t="n">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="E125" t="n">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="F125" t="n">
-        <v>400.0618</v>
+        <v>366.7701</v>
       </c>
       <c r="G125" t="n">
         <v>960.8833333333333</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3635,21 +4012,24 @@
         <v>961</v>
       </c>
       <c r="C126" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D126" t="n">
         <v>961</v>
       </c>
       <c r="E126" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F126" t="n">
-        <v>803.8224</v>
+        <v>400.0618</v>
       </c>
       <c r="G126" t="n">
         <v>960.8833333333333</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3670,12 +4050,15 @@
         <v>961</v>
       </c>
       <c r="F127" t="n">
-        <v>1</v>
+        <v>803.8224</v>
       </c>
       <c r="G127" t="n">
-        <v>960.8666666666667</v>
+        <v>960.8833333333333</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3684,24 +4067,27 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="C128" t="n">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="D128" t="n">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="E128" t="n">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="F128" t="n">
-        <v>1.8296</v>
+        <v>1</v>
       </c>
       <c r="G128" t="n">
-        <v>960.8</v>
+        <v>960.8666666666667</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3722,12 +4108,15 @@
         <v>958</v>
       </c>
       <c r="F129" t="n">
-        <v>4407.7383</v>
+        <v>1.8296</v>
       </c>
       <c r="G129" t="n">
-        <v>960.75</v>
+        <v>960.8</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3736,24 +4125,27 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="C130" t="n">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="D130" t="n">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="E130" t="n">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="F130" t="n">
-        <v>125.0985</v>
+        <v>4407.7383</v>
       </c>
       <c r="G130" t="n">
-        <v>960.7666666666667</v>
+        <v>960.75</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3765,21 +4157,24 @@
         <v>961</v>
       </c>
       <c r="C131" t="n">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="D131" t="n">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="E131" t="n">
         <v>961</v>
       </c>
       <c r="F131" t="n">
-        <v>436.6337</v>
+        <v>125.0985</v>
       </c>
       <c r="G131" t="n">
         <v>960.7666666666667</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3800,12 +4195,15 @@
         <v>961</v>
       </c>
       <c r="F132" t="n">
-        <v>130.8192</v>
+        <v>436.6337</v>
       </c>
       <c r="G132" t="n">
         <v>960.7666666666667</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3826,12 +4224,15 @@
         <v>961</v>
       </c>
       <c r="F133" t="n">
-        <v>2046.8227</v>
+        <v>130.8192</v>
       </c>
       <c r="G133" t="n">
         <v>960.7666666666667</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3852,12 +4253,15 @@
         <v>961</v>
       </c>
       <c r="F134" t="n">
-        <v>236.4</v>
+        <v>2046.8227</v>
       </c>
       <c r="G134" t="n">
-        <v>960.75</v>
+        <v>960.7666666666667</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3878,12 +4282,15 @@
         <v>961</v>
       </c>
       <c r="F135" t="n">
-        <v>95.5247</v>
+        <v>236.4</v>
       </c>
       <c r="G135" t="n">
-        <v>960.7333333333333</v>
+        <v>960.75</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3904,12 +4311,15 @@
         <v>961</v>
       </c>
       <c r="F136" t="n">
-        <v>24.9976</v>
+        <v>95.5247</v>
       </c>
       <c r="G136" t="n">
         <v>960.7333333333333</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3930,12 +4340,15 @@
         <v>961</v>
       </c>
       <c r="F137" t="n">
-        <v>8.4659</v>
+        <v>24.9976</v>
       </c>
       <c r="G137" t="n">
         <v>960.7333333333333</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3947,21 +4360,24 @@
         <v>961</v>
       </c>
       <c r="C138" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D138" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E138" t="n">
         <v>961</v>
       </c>
       <c r="F138" t="n">
-        <v>1224.0701</v>
+        <v>8.4659</v>
       </c>
       <c r="G138" t="n">
-        <v>960.75</v>
+        <v>960.7333333333333</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3970,7 +4386,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C139" t="n">
         <v>962</v>
@@ -3979,15 +4395,18 @@
         <v>962</v>
       </c>
       <c r="E139" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F139" t="n">
-        <v>43.3463</v>
+        <v>1224.0701</v>
       </c>
       <c r="G139" t="n">
-        <v>960.7833333333333</v>
+        <v>960.75</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4008,12 +4427,15 @@
         <v>962</v>
       </c>
       <c r="F140" t="n">
-        <v>23.3905</v>
+        <v>43.3463</v>
       </c>
       <c r="G140" t="n">
-        <v>960.8166666666667</v>
+        <v>960.7833333333333</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4022,24 +4444,27 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>958</v>
+        <v>962</v>
       </c>
       <c r="C141" t="n">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="D141" t="n">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="E141" t="n">
-        <v>958</v>
+        <v>962</v>
       </c>
       <c r="F141" t="n">
-        <v>153.8247</v>
+        <v>23.3905</v>
       </c>
       <c r="G141" t="n">
         <v>960.8166666666667</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4048,24 +4473,27 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C142" t="n">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D142" t="n">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E142" t="n">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F142" t="n">
-        <v>27.1748</v>
+        <v>153.8247</v>
       </c>
       <c r="G142" t="n">
-        <v>960.8</v>
+        <v>960.8166666666667</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4074,24 +4502,27 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="C143" t="n">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D143" t="n">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E143" t="n">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="F143" t="n">
-        <v>59.9973</v>
+        <v>27.1748</v>
       </c>
       <c r="G143" t="n">
-        <v>960.7833333333333</v>
+        <v>960.8</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4100,24 +4531,27 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C144" t="n">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="D144" t="n">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="E144" t="n">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F144" t="n">
-        <v>10.3732</v>
+        <v>59.9973</v>
       </c>
       <c r="G144" t="n">
-        <v>960.7166666666667</v>
+        <v>960.7833333333333</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4126,24 +4560,27 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="C145" t="n">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="D145" t="n">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="E145" t="n">
-        <v>953</v>
+        <v>958</v>
       </c>
       <c r="F145" t="n">
-        <v>1140.1455</v>
+        <v>10.3732</v>
       </c>
       <c r="G145" t="n">
-        <v>960.6333333333333</v>
+        <v>960.7166666666667</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4152,24 +4589,27 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C146" t="n">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="D146" t="n">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="E146" t="n">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="F146" t="n">
-        <v>57.0609</v>
+        <v>1140.1455</v>
       </c>
       <c r="G146" t="n">
-        <v>960.5333333333333</v>
+        <v>960.6333333333333</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4178,24 +4618,27 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="C147" t="n">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="D147" t="n">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="E147" t="n">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="F147" t="n">
-        <v>58.1922</v>
+        <v>57.0609</v>
       </c>
       <c r="G147" t="n">
-        <v>960.4</v>
+        <v>960.5333333333333</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4204,24 +4647,27 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="C148" t="n">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="D148" t="n">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="E148" t="n">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="F148" t="n">
-        <v>918.9503</v>
+        <v>58.1922</v>
       </c>
       <c r="G148" t="n">
-        <v>960.2333333333333</v>
+        <v>960.4</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4233,21 +4679,24 @@
         <v>953</v>
       </c>
       <c r="C149" t="n">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D149" t="n">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="E149" t="n">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="F149" t="n">
-        <v>2703.8289</v>
+        <v>918.9503</v>
       </c>
       <c r="G149" t="n">
-        <v>960.15</v>
+        <v>960.2333333333333</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4256,24 +4705,27 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="C150" t="n">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="D150" t="n">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="E150" t="n">
         <v>951</v>
       </c>
       <c r="F150" t="n">
-        <v>76.4623</v>
+        <v>2703.8289</v>
       </c>
       <c r="G150" t="n">
-        <v>960</v>
+        <v>960.15</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4282,24 +4734,27 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C151" t="n">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D151" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E151" t="n">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F151" t="n">
-        <v>58.9835</v>
+        <v>76.4623</v>
       </c>
       <c r="G151" t="n">
-        <v>959.8833333333333</v>
+        <v>960</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4308,24 +4763,27 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="C152" t="n">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D152" t="n">
         <v>953</v>
       </c>
       <c r="E152" t="n">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="F152" t="n">
-        <v>99.226</v>
+        <v>58.9835</v>
       </c>
       <c r="G152" t="n">
-        <v>959.75</v>
+        <v>959.8833333333333</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4334,24 +4792,27 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C153" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D153" t="n">
         <v>953</v>
       </c>
       <c r="E153" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F153" t="n">
-        <v>151.2417461699895</v>
+        <v>99.226</v>
       </c>
       <c r="G153" t="n">
-        <v>959.6333333333333</v>
+        <v>959.75</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4360,24 +4821,27 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="C154" t="n">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D154" t="n">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="E154" t="n">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="F154" t="n">
-        <v>39.6032</v>
+        <v>151.2417461699895</v>
       </c>
       <c r="G154" t="n">
-        <v>959.5</v>
+        <v>959.6333333333333</v>
       </c>
       <c r="H154" t="n">
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4398,12 +4862,15 @@
         <v>952</v>
       </c>
       <c r="F155" t="n">
-        <v>579.8353</v>
+        <v>39.6032</v>
       </c>
       <c r="G155" t="n">
-        <v>959.3333333333334</v>
+        <v>959.5</v>
       </c>
       <c r="H155" t="n">
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4424,12 +4891,15 @@
         <v>952</v>
       </c>
       <c r="F156" t="n">
-        <v>596.5214999999999</v>
+        <v>579.8353</v>
       </c>
       <c r="G156" t="n">
-        <v>959.2</v>
+        <v>959.3333333333334</v>
       </c>
       <c r="H156" t="n">
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4450,12 +4920,15 @@
         <v>952</v>
       </c>
       <c r="F157" t="n">
-        <v>167.3635</v>
+        <v>596.5214999999999</v>
       </c>
       <c r="G157" t="n">
-        <v>959.1</v>
+        <v>959.2</v>
       </c>
       <c r="H157" t="n">
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4476,12 +4949,15 @@
         <v>952</v>
       </c>
       <c r="F158" t="n">
-        <v>2</v>
+        <v>167.3635</v>
       </c>
       <c r="G158" t="n">
-        <v>958.95</v>
+        <v>959.1</v>
       </c>
       <c r="H158" t="n">
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4502,12 +4978,15 @@
         <v>952</v>
       </c>
       <c r="F159" t="n">
-        <v>351.4814</v>
+        <v>2</v>
       </c>
       <c r="G159" t="n">
-        <v>958.8</v>
+        <v>958.95</v>
       </c>
       <c r="H159" t="n">
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4528,12 +5007,15 @@
         <v>952</v>
       </c>
       <c r="F160" t="n">
-        <v>1078.6336</v>
+        <v>351.4814</v>
       </c>
       <c r="G160" t="n">
-        <v>958.65</v>
+        <v>958.8</v>
       </c>
       <c r="H160" t="n">
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4542,24 +5024,27 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="C161" t="n">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="D161" t="n">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="E161" t="n">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="F161" t="n">
-        <v>106.9957</v>
+        <v>1078.6336</v>
       </c>
       <c r="G161" t="n">
-        <v>958.5</v>
+        <v>958.65</v>
       </c>
       <c r="H161" t="n">
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4580,12 +5065,15 @@
         <v>950</v>
       </c>
       <c r="F162" t="n">
-        <v>160.2662</v>
+        <v>106.9957</v>
       </c>
       <c r="G162" t="n">
-        <v>958.3166666666667</v>
+        <v>958.5</v>
       </c>
       <c r="H162" t="n">
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4594,24 +5082,27 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C163" t="n">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="D163" t="n">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="E163" t="n">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="F163" t="n">
-        <v>82.1401</v>
+        <v>160.2662</v>
       </c>
       <c r="G163" t="n">
-        <v>958.15</v>
+        <v>958.3166666666667</v>
       </c>
       <c r="H163" t="n">
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4620,24 +5111,27 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="C164" t="n">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D164" t="n">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="E164" t="n">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="F164" t="n">
-        <v>14.0042</v>
+        <v>82.1401</v>
       </c>
       <c r="G164" t="n">
-        <v>957.9666666666667</v>
+        <v>958.15</v>
       </c>
       <c r="H164" t="n">
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4646,24 +5140,27 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C165" t="n">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D165" t="n">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E165" t="n">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F165" t="n">
-        <v>1052</v>
+        <v>14.0042</v>
       </c>
       <c r="G165" t="n">
-        <v>957.8333333333334</v>
+        <v>957.9666666666667</v>
       </c>
       <c r="H165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4672,24 +5169,27 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="C166" t="n">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D166" t="n">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="E166" t="n">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="F166" t="n">
-        <v>1000</v>
+        <v>1052</v>
       </c>
       <c r="G166" t="n">
-        <v>957.7</v>
+        <v>957.8333333333334</v>
       </c>
       <c r="H166" t="n">
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4710,12 +5210,15 @@
         <v>951</v>
       </c>
       <c r="F167" t="n">
-        <v>51.5247</v>
+        <v>1000</v>
       </c>
       <c r="G167" t="n">
-        <v>957.5</v>
+        <v>957.7</v>
       </c>
       <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4724,544 +5227,27 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="C168" t="n">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D168" t="n">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="E168" t="n">
-        <v>946</v>
+        <v>951</v>
       </c>
       <c r="F168" t="n">
-        <v>359.3</v>
+        <v>51.5247</v>
       </c>
       <c r="G168" t="n">
-        <v>957.2333333333333</v>
+        <v>957.5</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>950</v>
-      </c>
-      <c r="C169" t="n">
-        <v>949</v>
-      </c>
-      <c r="D169" t="n">
-        <v>950</v>
-      </c>
-      <c r="E169" t="n">
-        <v>949</v>
-      </c>
-      <c r="F169" t="n">
-        <v>52.5626</v>
-      </c>
-      <c r="G169" t="n">
-        <v>956.9666666666667</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>946</v>
-      </c>
-      <c r="C170" t="n">
-        <v>951</v>
-      </c>
-      <c r="D170" t="n">
-        <v>951</v>
-      </c>
-      <c r="E170" t="n">
-        <v>946</v>
-      </c>
-      <c r="F170" t="n">
-        <v>2134.3628</v>
-      </c>
-      <c r="G170" t="n">
-        <v>956.7333333333333</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>950</v>
-      </c>
-      <c r="C171" t="n">
-        <v>950</v>
-      </c>
-      <c r="D171" t="n">
-        <v>950</v>
-      </c>
-      <c r="E171" t="n">
-        <v>950</v>
-      </c>
-      <c r="F171" t="n">
-        <v>92.70480000000001</v>
-      </c>
-      <c r="G171" t="n">
-        <v>956.55</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>950</v>
-      </c>
-      <c r="C172" t="n">
-        <v>951</v>
-      </c>
-      <c r="D172" t="n">
-        <v>951</v>
-      </c>
-      <c r="E172" t="n">
-        <v>950</v>
-      </c>
-      <c r="F172" t="n">
-        <v>1595.653</v>
-      </c>
-      <c r="G172" t="n">
-        <v>956.4</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>950</v>
-      </c>
-      <c r="C173" t="n">
-        <v>950</v>
-      </c>
-      <c r="D173" t="n">
-        <v>950</v>
-      </c>
-      <c r="E173" t="n">
-        <v>950</v>
-      </c>
-      <c r="F173" t="n">
-        <v>133.8119</v>
-      </c>
-      <c r="G173" t="n">
-        <v>956.2333333333333</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>951</v>
-      </c>
-      <c r="C174" t="n">
-        <v>951</v>
-      </c>
-      <c r="D174" t="n">
-        <v>951</v>
-      </c>
-      <c r="E174" t="n">
-        <v>951</v>
-      </c>
-      <c r="F174" t="n">
-        <v>149.9</v>
-      </c>
-      <c r="G174" t="n">
-        <v>956.0333333333333</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>951</v>
-      </c>
-      <c r="C175" t="n">
-        <v>951</v>
-      </c>
-      <c r="D175" t="n">
-        <v>951</v>
-      </c>
-      <c r="E175" t="n">
-        <v>951</v>
-      </c>
-      <c r="F175" t="n">
-        <v>855.778</v>
-      </c>
-      <c r="G175" t="n">
-        <v>955.8833333333333</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>951</v>
-      </c>
-      <c r="C176" t="n">
-        <v>951</v>
-      </c>
-      <c r="D176" t="n">
-        <v>951</v>
-      </c>
-      <c r="E176" t="n">
-        <v>951</v>
-      </c>
-      <c r="F176" t="n">
-        <v>11.222</v>
-      </c>
-      <c r="G176" t="n">
-        <v>955.7666666666667</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>947</v>
-      </c>
-      <c r="C177" t="n">
-        <v>947</v>
-      </c>
-      <c r="D177" t="n">
-        <v>947</v>
-      </c>
-      <c r="E177" t="n">
-        <v>947</v>
-      </c>
-      <c r="F177" t="n">
-        <v>51</v>
-      </c>
-      <c r="G177" t="n">
-        <v>955.5833333333334</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>950</v>
-      </c>
-      <c r="C178" t="n">
-        <v>950</v>
-      </c>
-      <c r="D178" t="n">
-        <v>950</v>
-      </c>
-      <c r="E178" t="n">
-        <v>950</v>
-      </c>
-      <c r="F178" t="n">
-        <v>10.7208</v>
-      </c>
-      <c r="G178" t="n">
-        <v>955.4666666666667</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>950</v>
-      </c>
-      <c r="C179" t="n">
-        <v>950</v>
-      </c>
-      <c r="D179" t="n">
-        <v>950</v>
-      </c>
-      <c r="E179" t="n">
-        <v>950</v>
-      </c>
-      <c r="F179" t="n">
-        <v>201.4181</v>
-      </c>
-      <c r="G179" t="n">
-        <v>955.35</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>950</v>
-      </c>
-      <c r="C180" t="n">
-        <v>950</v>
-      </c>
-      <c r="D180" t="n">
-        <v>950</v>
-      </c>
-      <c r="E180" t="n">
-        <v>950</v>
-      </c>
-      <c r="F180" t="n">
-        <v>20.8645</v>
-      </c>
-      <c r="G180" t="n">
-        <v>955.2</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>950</v>
-      </c>
-      <c r="C181" t="n">
-        <v>955</v>
-      </c>
-      <c r="D181" t="n">
-        <v>955</v>
-      </c>
-      <c r="E181" t="n">
-        <v>950</v>
-      </c>
-      <c r="F181" t="n">
-        <v>1838.559653830011</v>
-      </c>
-      <c r="G181" t="n">
-        <v>955.0833333333334</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>957</v>
-      </c>
-      <c r="C182" t="n">
-        <v>956</v>
-      </c>
-      <c r="D182" t="n">
-        <v>957</v>
-      </c>
-      <c r="E182" t="n">
-        <v>956</v>
-      </c>
-      <c r="F182" t="n">
-        <v>62.6445</v>
-      </c>
-      <c r="G182" t="n">
-        <v>954.9833333333333</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>955</v>
-      </c>
-      <c r="C183" t="n">
-        <v>955</v>
-      </c>
-      <c r="D183" t="n">
-        <v>955</v>
-      </c>
-      <c r="E183" t="n">
-        <v>955</v>
-      </c>
-      <c r="F183" t="n">
-        <v>36.7205</v>
-      </c>
-      <c r="G183" t="n">
-        <v>954.8833333333333</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>956</v>
-      </c>
-      <c r="C184" t="n">
-        <v>955</v>
-      </c>
-      <c r="D184" t="n">
-        <v>956</v>
-      </c>
-      <c r="E184" t="n">
-        <v>955</v>
-      </c>
-      <c r="F184" t="n">
-        <v>77.20869999999999</v>
-      </c>
-      <c r="G184" t="n">
-        <v>954.7666666666667</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>956</v>
-      </c>
-      <c r="C185" t="n">
-        <v>955</v>
-      </c>
-      <c r="D185" t="n">
-        <v>956</v>
-      </c>
-      <c r="E185" t="n">
-        <v>955</v>
-      </c>
-      <c r="F185" t="n">
-        <v>339.5944</v>
-      </c>
-      <c r="G185" t="n">
-        <v>954.6833333333333</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>955</v>
-      </c>
-      <c r="C186" t="n">
-        <v>955</v>
-      </c>
-      <c r="D186" t="n">
-        <v>955</v>
-      </c>
-      <c r="E186" t="n">
-        <v>955</v>
-      </c>
-      <c r="F186" t="n">
-        <v>463.448</v>
-      </c>
-      <c r="G186" t="n">
-        <v>954.5833333333334</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>951</v>
-      </c>
-      <c r="C187" t="n">
-        <v>951</v>
-      </c>
-      <c r="D187" t="n">
-        <v>951</v>
-      </c>
-      <c r="E187" t="n">
-        <v>951</v>
-      </c>
-      <c r="F187" t="n">
-        <v>2.351</v>
-      </c>
-      <c r="G187" t="n">
-        <v>954.4166666666666</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>951</v>
-      </c>
-      <c r="C188" t="n">
-        <v>951</v>
-      </c>
-      <c r="D188" t="n">
-        <v>951</v>
-      </c>
-      <c r="E188" t="n">
-        <v>951</v>
-      </c>
-      <c r="F188" t="n">
-        <v>37.6669</v>
-      </c>
-      <c r="G188" t="n">
-        <v>954.3</v>
-      </c>
-      <c r="H188" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
